--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H2">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I2">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J2">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>1659.988156809028</v>
+        <v>1999.567197703127</v>
       </c>
       <c r="R2">
-        <v>1659.988156809028</v>
+        <v>17996.10477932814</v>
       </c>
       <c r="S2">
-        <v>0.3293455933407105</v>
+        <v>0.3321247199230946</v>
       </c>
       <c r="T2">
-        <v>0.3293455933407105</v>
+        <v>0.3499093463638503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H3">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I3">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J3">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>708.3825719248586</v>
+        <v>879.0240998512168</v>
       </c>
       <c r="R3">
-        <v>708.3825719248586</v>
+        <v>7911.21689866095</v>
       </c>
       <c r="S3">
-        <v>0.1405447849165897</v>
+        <v>0.1460044120068029</v>
       </c>
       <c r="T3">
-        <v>0.1405447849165897</v>
+        <v>0.1538226615091117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H4">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I4">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J4">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>967.6560704350209</v>
+        <v>1140.759101486013</v>
       </c>
       <c r="R4">
-        <v>967.6560704350209</v>
+        <v>10266.83191337412</v>
       </c>
       <c r="S4">
-        <v>0.1919852628827074</v>
+        <v>0.1894781518300412</v>
       </c>
       <c r="T4">
-        <v>0.1919852628827074</v>
+        <v>0.1996243347150802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H5">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I5">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J5">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>903.7150435815273</v>
+        <v>1077.423676638338</v>
       </c>
       <c r="R5">
-        <v>903.7150435815273</v>
+        <v>9696.813089745041</v>
       </c>
       <c r="S5">
-        <v>0.1792992112735448</v>
+        <v>0.1789582451907908</v>
       </c>
       <c r="T5">
-        <v>0.1792992112735448</v>
+        <v>0.1885411077369704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H6">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I6">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J6">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>480.2733472120128</v>
+        <v>558.8429333737554</v>
       </c>
       <c r="R6">
-        <v>480.2733472120128</v>
+        <v>3353.057600242532</v>
       </c>
       <c r="S6">
-        <v>0.09528737289748422</v>
+        <v>0.09282286333810708</v>
       </c>
       <c r="T6">
-        <v>0.09528737289748422</v>
+        <v>0.06519556357378616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H7">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I7">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J7">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>112.6280918150738</v>
+        <v>10.89115646733422</v>
       </c>
       <c r="R7">
-        <v>112.6280918150738</v>
+        <v>98.02040820600799</v>
       </c>
       <c r="S7">
-        <v>0.02234568094568332</v>
+        <v>0.001809002615919599</v>
       </c>
       <c r="T7">
-        <v>0.02234568094568332</v>
+        <v>0.001905871153021955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H8">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I8">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J8">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>48.06285937865864</v>
+        <v>4.787830597058333</v>
       </c>
       <c r="R8">
-        <v>48.06285937865864</v>
+        <v>43.090475373525</v>
       </c>
       <c r="S8">
-        <v>0.009535785466170964</v>
+        <v>0.0007952505411740155</v>
       </c>
       <c r="T8">
-        <v>0.009535785466170964</v>
+        <v>0.0008378346457382997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H9">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I9">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J9">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>65.65423753135073</v>
+        <v>6.213437527926666</v>
       </c>
       <c r="R9">
-        <v>65.65423753135073</v>
+        <v>55.92093775133999</v>
       </c>
       <c r="S9">
-        <v>0.0130259566771007</v>
+        <v>0.001032041434312764</v>
       </c>
       <c r="T9">
-        <v>0.0130259566771007</v>
+        <v>0.001087305226134355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H10">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I10">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J10">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>61.31591992729696</v>
+        <v>5.868464864475555</v>
       </c>
       <c r="R10">
-        <v>61.31591992729696</v>
+        <v>52.81618378028</v>
       </c>
       <c r="S10">
-        <v>0.012165224159494</v>
+        <v>0.000974742060047456</v>
       </c>
       <c r="T10">
-        <v>0.012165224159494</v>
+        <v>0.001026937582916247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H11">
+        <v>0.299359</v>
+      </c>
+      <c r="I11">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J11">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.503993</v>
+      </c>
+      <c r="N11">
+        <v>61.007986</v>
+      </c>
+      <c r="O11">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P11">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q11">
+        <v>3.043881613495667</v>
+      </c>
+      <c r="R11">
+        <v>18.263289680974</v>
+      </c>
+      <c r="S11">
+        <v>0.0005055835730464906</v>
+      </c>
+      <c r="T11">
+        <v>0.0003551043869262159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.082285</v>
+      </c>
+      <c r="H12">
+        <v>2.16457</v>
+      </c>
+      <c r="I12">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J12">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>109.1447706666667</v>
+      </c>
+      <c r="N12">
+        <v>327.434312</v>
+      </c>
+      <c r="O12">
+        <v>0.3535542089399963</v>
+      </c>
+      <c r="P12">
+        <v>0.3655959674582361</v>
+      </c>
+      <c r="Q12">
+        <v>118.1257481209733</v>
+      </c>
+      <c r="R12">
+        <v>708.7544887258399</v>
+      </c>
+      <c r="S12">
+        <v>0.01962048640098219</v>
+      </c>
+      <c r="T12">
+        <v>0.01378074994136383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.082285</v>
+      </c>
+      <c r="H13">
+        <v>2.16457</v>
+      </c>
+      <c r="I13">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J13">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.980825</v>
+      </c>
+      <c r="N13">
+        <v>143.942475</v>
+      </c>
+      <c r="O13">
+        <v>0.155424969272891</v>
+      </c>
+      <c r="P13">
+        <v>0.1607186127944892</v>
+      </c>
+      <c r="Q13">
+        <v>51.928927185125</v>
+      </c>
+      <c r="R13">
+        <v>311.57356311075</v>
+      </c>
+      <c r="S13">
+        <v>0.008625306724914093</v>
+      </c>
+      <c r="T13">
+        <v>0.006058116639639202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.082285</v>
+      </c>
+      <c r="H14">
+        <v>2.16457</v>
+      </c>
+      <c r="I14">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J14">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>62.26741999999999</v>
+      </c>
+      <c r="N14">
+        <v>186.80226</v>
+      </c>
+      <c r="O14">
+        <v>0.2017037397794264</v>
+      </c>
+      <c r="P14">
+        <v>0.2085735992386923</v>
+      </c>
+      <c r="Q14">
+        <v>67.39109465469998</v>
+      </c>
+      <c r="R14">
+        <v>404.3465679281999</v>
+      </c>
+      <c r="S14">
+        <v>0.01119354651507243</v>
+      </c>
+      <c r="T14">
+        <v>0.007861959297477749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="H11">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="I11">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="J11">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="N11">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="O11">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="P11">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="Q11">
-        <v>32.58593769133159</v>
-      </c>
-      <c r="R11">
-        <v>32.58593769133159</v>
-      </c>
-      <c r="S11">
-        <v>0.006465127440514434</v>
-      </c>
-      <c r="T11">
-        <v>0.006465127440514434</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.082285</v>
+      </c>
+      <c r="H15">
+        <v>2.16457</v>
+      </c>
+      <c r="I15">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J15">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.81030666666667</v>
+      </c>
+      <c r="N15">
+        <v>176.43092</v>
+      </c>
+      <c r="O15">
+        <v>0.1905050633580386</v>
+      </c>
+      <c r="P15">
+        <v>0.1969935053322898</v>
+      </c>
+      <c r="Q15">
+        <v>63.64951275073333</v>
+      </c>
+      <c r="R15">
+        <v>381.8970765044</v>
+      </c>
+      <c r="S15">
+        <v>0.01057207610720033</v>
+      </c>
+      <c r="T15">
+        <v>0.007425460012403238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.082285</v>
+      </c>
+      <c r="H16">
+        <v>2.16457</v>
+      </c>
+      <c r="I16">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J16">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.503993</v>
+      </c>
+      <c r="N16">
+        <v>61.007986</v>
+      </c>
+      <c r="O16">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P16">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q16">
+        <v>33.014014064005</v>
+      </c>
+      <c r="R16">
+        <v>132.05605625602</v>
+      </c>
+      <c r="S16">
+        <v>0.005483571738494126</v>
+      </c>
+      <c r="T16">
+        <v>0.00256764721558022</v>
       </c>
     </row>
   </sheetData>
